--- a/biology/Botanique/Hacquetia_epipactis/Hacquetia_epipactis.xlsx
+++ b/biology/Botanique/Hacquetia_epipactis/Hacquetia_epipactis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hacquetia epipactis (synonyme : Dondia epipactis) est une espèce de plantes vivace rhizomateuse de la famille des Ombellifères. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante forme une touffe, elle pousse à l'état sauvage dans les zones boisées d'Europe. Elle aime donc les situations fraîches et ombragées. Il est possible d'en planter dans un jardin, soit en recréant son milieu de prédilection, soit en la plaçant en rocaille ou dans un massif tourbeux.
 Cette plante préfère donc un sol humide et frais, mais plutôt bien drainé, de préférence acide. 
@@ -546,7 +560,9 @@
           <t>Espèce</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses feuilles, de 4 à 7 cm de long, d'un vert émeraude brillant, ne se développent vraiment qu'après la floraison. Elles sont orbiculaires, divisées en trois lobes cunéiformes dentés. 
 Floraison en février-mars d'ombelles compactes de 2 à 4 cm de diamètre, composées de minuscules fleurs jaunes, entourées de bractées vert vif.
